--- a/spec/fixtures/files/models/import/cdisc_term/SDTM Terminology 2007-03-06.xlsx
+++ b/spec/fixtures/files/models/import/cdisc_term/SDTM Terminology 2007-03-06.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10115"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/spec/fixtures/files/models/import/cdisc_term/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD8E79E-C710-C948-9761-2C8C8FBFA24B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F121A5-D033-274B-8A5A-FBC3481A07E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="1860" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6649" uniqueCount="3832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6650" uniqueCount="3832">
   <si>
     <t>C49631</t>
   </si>
@@ -12039,8 +12039,8 @@
   </sheetPr>
   <dimension ref="A1:I878"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A322" zoomScale="198" zoomScaleNormal="198" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="198" zoomScaleNormal="198" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -12102,7 +12102,9 @@
       <c r="E2" s="8" t="s">
         <v>3681</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="9" t="s">
+        <v>3003</v>
+      </c>
       <c r="G2" s="9" t="s">
         <v>1970</v>
       </c>
@@ -12525,7 +12527,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="10" t="s">
         <v>676</v>
       </c>
@@ -12827,7 +12829,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="56" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="A31" s="10" t="s">
         <v>2821</v>
       </c>
@@ -12956,7 +12958,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="56" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="A36" s="10" t="s">
         <v>452</v>
       </c>
@@ -13331,7 +13333,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="168" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:9" ht="154" x14ac:dyDescent="0.15">
       <c r="A51" s="10" t="s">
         <v>2834</v>
       </c>
@@ -13406,7 +13408,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A54" s="10" t="s">
         <v>1302</v>
       </c>
@@ -13633,7 +13635,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="70" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:9" ht="56" x14ac:dyDescent="0.15">
       <c r="A63" s="12" t="s">
         <v>2051</v>
       </c>
@@ -13660,7 +13662,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A64" s="12" t="s">
         <v>2045</v>
       </c>
@@ -13741,7 +13743,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="56" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="A67" s="12" t="s">
         <v>2885</v>
       </c>
@@ -13845,7 +13847,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="126" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:9" ht="112" x14ac:dyDescent="0.15">
       <c r="A71" s="10" t="s">
         <v>3642</v>
       </c>
@@ -14005,7 +14007,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A77" s="10" t="s">
         <v>3599</v>
       </c>
@@ -14140,7 +14142,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A82" s="10" t="s">
         <v>14</v>
       </c>
@@ -14275,7 +14277,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A87" s="10" t="s">
         <v>11</v>
       </c>
@@ -14869,7 +14871,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A109" s="10" t="s">
         <v>2233</v>
       </c>
@@ -15409,7 +15411,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A129" s="10" t="s">
         <v>112</v>
       </c>
@@ -15571,7 +15573,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A135" s="10" t="s">
         <v>796</v>
       </c>
@@ -15922,7 +15924,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A148" s="10" t="s">
         <v>1028</v>
       </c>
@@ -16219,7 +16221,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="56" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="A159" s="10" t="s">
         <v>3481</v>
       </c>
@@ -16570,7 +16572,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A172" s="10" t="s">
         <v>3825</v>
       </c>
@@ -16786,7 +16788,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A180" s="10" t="s">
         <v>2384</v>
       </c>
@@ -17029,7 +17031,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A189" s="10" t="s">
         <v>2266</v>
       </c>
@@ -17542,7 +17544,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A208" s="10" t="s">
         <v>633</v>
       </c>
@@ -18082,7 +18084,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="228" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A228" s="10" t="s">
         <v>974</v>
       </c>
@@ -18298,7 +18300,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="236" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A236" s="10" t="s">
         <v>2948</v>
       </c>
@@ -18352,7 +18354,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="238" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A238" s="10" t="s">
         <v>978</v>
       </c>
@@ -18514,7 +18516,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="244" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A244" s="10" t="s">
         <v>1043</v>
       </c>
@@ -18811,7 +18813,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="255" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A255" s="10" t="s">
         <v>1106</v>
       </c>
@@ -19216,7 +19218,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="270" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A270" s="10" t="s">
         <v>3478</v>
       </c>
@@ -19513,7 +19515,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="281" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A281" s="10" t="s">
         <v>2035</v>
       </c>
@@ -19999,7 +20001,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="299" spans="1:9" ht="70" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:9" ht="56" x14ac:dyDescent="0.15">
       <c r="A299" s="10" t="s">
         <v>222</v>
       </c>
@@ -20134,7 +20136,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="304" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A304" s="10" t="s">
         <v>2619</v>
       </c>
@@ -20934,7 +20936,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="334" spans="1:9" ht="140" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:9" ht="126" x14ac:dyDescent="0.15">
       <c r="A334" s="8" t="s">
         <v>1456</v>
       </c>
@@ -21011,7 +21013,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="337" spans="1:9" ht="56" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="A337" s="10" t="s">
         <v>2195</v>
       </c>
@@ -21236,7 +21238,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="346" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A346" s="10" t="s">
         <v>3107</v>
       </c>
@@ -21311,7 +21313,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="349" spans="1:9" ht="98" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="A349" s="10" t="s">
         <v>2168</v>
       </c>
@@ -21386,7 +21388,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="352" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A352" s="10" t="s">
         <v>1901</v>
       </c>
@@ -21611,7 +21613,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="361" spans="1:9" ht="98" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="A361" s="12" t="s">
         <v>1836</v>
       </c>
@@ -21886,7 +21888,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="372" spans="1:9" ht="98" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="A372" s="10" t="s">
         <v>2660</v>
       </c>
@@ -21986,7 +21988,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="376" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A376" s="10" t="s">
         <v>2908</v>
       </c>
@@ -22061,7 +22063,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="379" spans="1:9" ht="70" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:9" ht="56" x14ac:dyDescent="0.15">
       <c r="A379" s="12" t="s">
         <v>1840</v>
       </c>
@@ -22186,7 +22188,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="384" spans="1:9" ht="70" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:9" ht="56" x14ac:dyDescent="0.15">
       <c r="A384" s="10" t="s">
         <v>3673</v>
       </c>
@@ -22311,7 +22313,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="389" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A389" s="10" t="s">
         <v>2183</v>
       </c>
@@ -22436,7 +22438,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="394" spans="1:9" ht="56" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="A394" s="10" t="s">
         <v>1081</v>
       </c>
@@ -22511,7 +22513,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="397" spans="1:9" ht="98" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="A397" s="10" t="s">
         <v>3519</v>
       </c>
@@ -22636,7 +22638,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="402" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A402" s="10" t="s">
         <v>1522</v>
       </c>
@@ -22761,7 +22763,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="407" spans="1:9" ht="126" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:9" ht="112" x14ac:dyDescent="0.15">
       <c r="A407" s="10" t="s">
         <v>2189</v>
       </c>
@@ -22861,7 +22863,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="411" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A411" s="10" t="s">
         <v>1383</v>
       </c>
@@ -22886,7 +22888,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="412" spans="1:9" ht="98" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="A412" s="10" t="s">
         <v>1019</v>
       </c>
@@ -23061,7 +23063,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="419" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A419" s="10" t="s">
         <v>1996</v>
       </c>
@@ -23111,7 +23113,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="421" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A421" s="10" t="s">
         <v>3605</v>
       </c>
@@ -23261,7 +23263,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="427" spans="1:9" ht="98" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="A427" s="12" t="s">
         <v>1845</v>
       </c>
@@ -23386,7 +23388,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="432" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A432" s="10" t="s">
         <v>2210</v>
       </c>
@@ -23411,7 +23413,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="433" spans="1:9" ht="182" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:9" ht="168" x14ac:dyDescent="0.15">
       <c r="A433" s="10" t="s">
         <v>2213</v>
       </c>
@@ -24086,7 +24088,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="460" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A460" s="10" t="s">
         <v>3403</v>
       </c>
@@ -24136,7 +24138,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="462" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A462" s="12" t="s">
         <v>1851</v>
       </c>
@@ -24361,7 +24363,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="471" spans="1:9" ht="70" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:9" ht="56" x14ac:dyDescent="0.15">
       <c r="A471" s="10" t="s">
         <v>1377</v>
       </c>
@@ -24511,7 +24513,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="477" spans="1:9" ht="70" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:9" ht="56" x14ac:dyDescent="0.15">
       <c r="A477" s="10" t="s">
         <v>1942</v>
       </c>
@@ -24888,7 +24890,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="492" spans="1:9" ht="140" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:9" ht="126" x14ac:dyDescent="0.15">
       <c r="A492" s="10" t="s">
         <v>2204</v>
       </c>
@@ -25190,7 +25192,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="504" spans="1:9" ht="238" x14ac:dyDescent="0.15">
+    <row r="504" spans="1:9" ht="224" x14ac:dyDescent="0.15">
       <c r="A504" s="10" t="s">
         <v>1444</v>
       </c>
@@ -25746,7 +25748,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="526" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="526" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A526" s="8" t="s">
         <v>834</v>
       </c>
@@ -25898,7 +25900,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="532" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="532" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A532" s="10" t="s">
         <v>536</v>
       </c>
@@ -27348,7 +27350,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="590" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="590" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A590" s="10" t="s">
         <v>863</v>
       </c>
@@ -28100,7 +28102,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="620" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="620" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A620" s="10" t="s">
         <v>1565</v>
       </c>
@@ -28200,7 +28202,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="624" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="624" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A624" s="10" t="s">
         <v>497</v>
       </c>
@@ -28602,7 +28604,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="640" spans="1:9" ht="70" x14ac:dyDescent="0.15">
+    <row r="640" spans="1:9" ht="56" x14ac:dyDescent="0.15">
       <c r="A640" s="12" t="s">
         <v>2051</v>
       </c>
@@ -28629,7 +28631,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="641" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="641" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A641" s="12" t="s">
         <v>2045</v>
       </c>
@@ -29082,7 +29084,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="658" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="658" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A658" s="10" t="s">
         <v>2650</v>
       </c>
@@ -29109,7 +29111,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="659" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="659" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A659" s="10" t="s">
         <v>2656</v>
       </c>
@@ -29136,7 +29138,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="660" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="660" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A660" s="10" t="s">
         <v>1173</v>
       </c>
@@ -29163,7 +29165,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="661" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="661" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A661" s="10" t="s">
         <v>1176</v>
       </c>
@@ -29217,7 +29219,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="663" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="663" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A663" s="10" t="s">
         <v>1182</v>
       </c>
@@ -29298,7 +29300,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="666" spans="1:9" ht="70" x14ac:dyDescent="0.15">
+    <row r="666" spans="1:9" ht="56" x14ac:dyDescent="0.15">
       <c r="A666" s="10" t="s">
         <v>1188</v>
       </c>
@@ -29379,7 +29381,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="669" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="669" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A669" s="10" t="s">
         <v>263</v>
       </c>
@@ -29460,7 +29462,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="672" spans="1:9" ht="56" x14ac:dyDescent="0.15">
+    <row r="672" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="A672" s="10" t="s">
         <v>1203</v>
       </c>
@@ -29568,7 +29570,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="676" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="676" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A676" s="10" t="s">
         <v>1211</v>
       </c>
@@ -29649,7 +29651,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="679" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="679" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A679" s="10" t="s">
         <v>305</v>
       </c>
@@ -29676,7 +29678,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="680" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="680" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A680" s="10" t="s">
         <v>318</v>
       </c>
@@ -29703,7 +29705,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="681" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="681" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A681" s="10" t="s">
         <v>321</v>
       </c>
@@ -29757,7 +29759,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="683" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="683" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A683" s="10" t="s">
         <v>302</v>
       </c>
@@ -29784,7 +29786,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="684" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="684" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A684" s="10" t="s">
         <v>324</v>
       </c>
@@ -29892,7 +29894,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="688" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="688" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A688" s="10" t="s">
         <v>336</v>
       </c>
@@ -29919,7 +29921,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="689" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="689" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A689" s="10" t="s">
         <v>339</v>
       </c>
@@ -29973,7 +29975,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="691" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="691" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A691" s="10" t="s">
         <v>345</v>
       </c>
@@ -30162,7 +30164,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="698" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="698" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A698" s="10" t="s">
         <v>778</v>
       </c>
@@ -30268,7 +30270,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="702" spans="1:9" ht="56" x14ac:dyDescent="0.15">
+    <row r="702" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="A702" s="10" t="s">
         <v>746</v>
       </c>
@@ -30497,7 +30499,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="711" spans="1:9" ht="319" x14ac:dyDescent="0.15">
+    <row r="711" spans="1:9" ht="306" x14ac:dyDescent="0.15">
       <c r="A711" s="10" t="s">
         <v>557</v>
       </c>
@@ -30659,7 +30661,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="717" spans="1:9" ht="182" x14ac:dyDescent="0.15">
+    <row r="717" spans="1:9" ht="168" x14ac:dyDescent="0.15">
       <c r="A717" s="10" t="s">
         <v>559</v>
       </c>
@@ -31172,7 +31174,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="736" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="736" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A736" s="10" t="s">
         <v>834</v>
       </c>
@@ -31569,7 +31571,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="751" spans="1:9" ht="140" x14ac:dyDescent="0.15">
+    <row r="751" spans="1:9" ht="126" x14ac:dyDescent="0.15">
       <c r="A751" s="10" t="s">
         <v>548</v>
       </c>
@@ -32396,7 +32398,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="782" spans="1:9" ht="168" x14ac:dyDescent="0.15">
+    <row r="782" spans="1:9" ht="154" x14ac:dyDescent="0.15">
       <c r="A782" s="10" t="s">
         <v>409</v>
       </c>
